--- a/public/excel/市政项目.xlsx
+++ b/public/excel/市政项目.xlsx
@@ -792,16 +792,16 @@
         <v/>
       </c>
       <c r="BP2" t="str">
-        <v/>
+        <v>312</v>
       </c>
       <c r="BQ2" t="str">
-        <v/>
+        <v>213</v>
       </c>
       <c r="BR2" t="str">
-        <v/>
+        <v>231</v>
       </c>
       <c r="BS2" t="str">
-        <v>33</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="3">
@@ -911,13 +911,13 @@
         <v>是</v>
       </c>
       <c r="AJ3" t="str">
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="AK3" t="str">
-        <v>3213/21/32</v>
+        <v>3213/21/31</v>
       </c>
       <c r="AL3" t="str">
-        <v/>
+        <v>321321</v>
       </c>
       <c r="AM3" t="str">
         <v/>
@@ -980,7 +980,7 @@
         <v/>
       </c>
       <c r="BG3" t="str">
-        <v/>
+        <v>321321</v>
       </c>
       <c r="BH3" t="str">
         <v/>
@@ -1007,16 +1007,16 @@
         <v/>
       </c>
       <c r="BP3" t="str">
-        <v/>
+        <v>321</v>
       </c>
       <c r="BQ3" t="str">
-        <v/>
+        <v>231</v>
       </c>
       <c r="BR3" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="BS3" t="str">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
